--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9669.099988102833</v>
+        <v>9927.930340258194</v>
       </c>
       <c r="AB2" t="n">
-        <v>13229.68917430869</v>
+        <v>13583.83228091691</v>
       </c>
       <c r="AC2" t="n">
-        <v>11967.06620749754</v>
+        <v>12287.41039305403</v>
       </c>
       <c r="AD2" t="n">
-        <v>9669099.988102833</v>
+        <v>9927930.340258194</v>
       </c>
       <c r="AE2" t="n">
-        <v>13229689.17430869</v>
+        <v>13583832.28091691</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.269345521494822e-07</v>
+        <v>7.596627924561818e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.68333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>11967066.20749754</v>
+        <v>12287410.39305403</v>
       </c>
     </row>
     <row r="3">
@@ -3108,28 +3108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3206.642890564875</v>
+        <v>3344.691434438039</v>
       </c>
       <c r="AB3" t="n">
-        <v>4387.470269971196</v>
+        <v>4576.354377970398</v>
       </c>
       <c r="AC3" t="n">
-        <v>3968.736265258179</v>
+        <v>4139.59353909044</v>
       </c>
       <c r="AD3" t="n">
-        <v>3206642.890564875</v>
+        <v>3344691.434438039</v>
       </c>
       <c r="AE3" t="n">
-        <v>4387470.269971197</v>
+        <v>4576354.377970397</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.94056489021753e-07</v>
+        <v>1.433095865945854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>3968736.265258179</v>
+        <v>4139593.539090439</v>
       </c>
     </row>
     <row r="4">
@@ -3214,28 +3214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2432.566044113331</v>
+        <v>2544.714574108597</v>
       </c>
       <c r="AB4" t="n">
-        <v>3328.344178795846</v>
+        <v>3481.790745179333</v>
       </c>
       <c r="AC4" t="n">
-        <v>3010.691681731838</v>
+        <v>3149.493523183289</v>
       </c>
       <c r="AD4" t="n">
-        <v>2432566.044113331</v>
+        <v>2544714.574108597</v>
       </c>
       <c r="AE4" t="n">
-        <v>3328344.178795846</v>
+        <v>3481790.745179333</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.167513073325666e-06</v>
+        <v>1.683162050948733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3010691.681731838</v>
+        <v>3149493.523183289</v>
       </c>
     </row>
     <row r="5">
@@ -3320,28 +3320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2107.401370540037</v>
+        <v>2210.916532739821</v>
       </c>
       <c r="AB5" t="n">
-        <v>2883.439527159713</v>
+        <v>3025.073538848281</v>
       </c>
       <c r="AC5" t="n">
-        <v>2608.248105620384</v>
+        <v>2736.364766017864</v>
       </c>
       <c r="AD5" t="n">
-        <v>2107401.370540037</v>
+        <v>2210916.532739821</v>
       </c>
       <c r="AE5" t="n">
-        <v>2883439.527159713</v>
+        <v>3025073.538848281</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.260441453646602e-06</v>
+        <v>1.817133589928408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2608248.105620384</v>
+        <v>2736364.766017864</v>
       </c>
     </row>
     <row r="6">
@@ -3426,28 +3426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1912.718745269706</v>
+        <v>2007.685880528576</v>
       </c>
       <c r="AB6" t="n">
-        <v>2617.066170473585</v>
+        <v>2747.004394589087</v>
       </c>
       <c r="AC6" t="n">
-        <v>2367.297048239026</v>
+        <v>2484.834150614387</v>
       </c>
       <c r="AD6" t="n">
-        <v>1912718.745269706</v>
+        <v>2007685.880528576</v>
       </c>
       <c r="AE6" t="n">
-        <v>2617066.170473585</v>
+        <v>2747004.394589087</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.318941109076265e-06</v>
+        <v>1.90147046140541e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2367297.048239026</v>
+        <v>2484834.150614387</v>
       </c>
     </row>
     <row r="7">
@@ -3532,28 +3532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1766.773520776559</v>
+        <v>1861.655315180857</v>
       </c>
       <c r="AB7" t="n">
-        <v>2417.377475673175</v>
+        <v>2547.198932666479</v>
       </c>
       <c r="AC7" t="n">
-        <v>2186.666362205523</v>
+        <v>2304.097841548945</v>
       </c>
       <c r="AD7" t="n">
-        <v>1766773.520776559</v>
+        <v>1861655.315180857</v>
       </c>
       <c r="AE7" t="n">
-        <v>2417377.475673174</v>
+        <v>2547198.932666479</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.359934633205281e-06</v>
+        <v>1.960569366355628e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.34791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2186666.362205523</v>
+        <v>2304097.841548945</v>
       </c>
     </row>
     <row r="8">
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1660.598226562141</v>
+        <v>1764.0279583988</v>
       </c>
       <c r="AB8" t="n">
-        <v>2272.103754005616</v>
+        <v>2413.620876102261</v>
       </c>
       <c r="AC8" t="n">
-        <v>2055.257360640967</v>
+        <v>2183.268287225236</v>
       </c>
       <c r="AD8" t="n">
-        <v>1660598.226562141</v>
+        <v>1764027.9583988</v>
       </c>
       <c r="AE8" t="n">
-        <v>2272103.754005617</v>
+        <v>2413620.876102261</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.385756176873735e-06</v>
+        <v>1.997795366982633e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.93333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2055257.360640967</v>
+        <v>2183268.287225236</v>
       </c>
     </row>
     <row r="9">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1650.919385599085</v>
+        <v>1754.349117435743</v>
       </c>
       <c r="AB9" t="n">
-        <v>2258.860736799635</v>
+        <v>2400.37785889628</v>
       </c>
       <c r="AC9" t="n">
-        <v>2043.278238410433</v>
+        <v>2171.289164994703</v>
       </c>
       <c r="AD9" t="n">
-        <v>1650919.385599085</v>
+        <v>1754349.117435743</v>
       </c>
       <c r="AE9" t="n">
-        <v>2258860.736799635</v>
+        <v>2400377.85889628</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38940328756137e-06</v>
+        <v>2.003053276675713e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2043278.238410433</v>
+        <v>2171289.164994703</v>
       </c>
     </row>
     <row r="10">
@@ -3850,28 +3850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1657.643472799537</v>
+        <v>1761.073204636195</v>
       </c>
       <c r="AB10" t="n">
-        <v>2268.060929553085</v>
+        <v>2409.57805164973</v>
       </c>
       <c r="AC10" t="n">
-        <v>2051.600377680045</v>
+        <v>2179.611304264315</v>
       </c>
       <c r="AD10" t="n">
-        <v>1657643.472799537</v>
+        <v>1761073.204636195</v>
       </c>
       <c r="AE10" t="n">
-        <v>2268060.929553085</v>
+        <v>2409578.05164973</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.38940328756137e-06</v>
+        <v>2.003053276675713e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2051600.377680045</v>
+        <v>2179611.304264314</v>
       </c>
     </row>
   </sheetData>
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5811.100466797914</v>
+        <v>6004.530616362393</v>
       </c>
       <c r="AB2" t="n">
-        <v>7951.004026332436</v>
+        <v>8215.663690502503</v>
       </c>
       <c r="AC2" t="n">
-        <v>7192.171361363206</v>
+        <v>7431.572278637042</v>
       </c>
       <c r="AD2" t="n">
-        <v>5811100.466797914</v>
+        <v>6004530.616362393</v>
       </c>
       <c r="AE2" t="n">
-        <v>7951004.026332436</v>
+        <v>8215663.690502502</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.942108363696204e-07</v>
+        <v>1.016298548960393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7192171.361363206</v>
+        <v>7431572.278637042</v>
       </c>
     </row>
     <row r="3">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2481.026750679703</v>
+        <v>2607.117422295605</v>
       </c>
       <c r="AB3" t="n">
-        <v>3394.650255455445</v>
+        <v>3567.173075088167</v>
       </c>
       <c r="AC3" t="n">
-        <v>3070.669599496207</v>
+        <v>3226.727083360473</v>
       </c>
       <c r="AD3" t="n">
-        <v>2481026.750679703</v>
+        <v>2607117.422295605</v>
       </c>
       <c r="AE3" t="n">
-        <v>3394650.255455445</v>
+        <v>3567173.075088167</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126734370507736e-06</v>
+        <v>1.649496731856151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.90416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3070669.599496207</v>
+        <v>3226727.083360473</v>
       </c>
     </row>
     <row r="4">
@@ -4359,28 +4359,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1952.344421702788</v>
+        <v>2061.685587063255</v>
       </c>
       <c r="AB4" t="n">
-        <v>2671.283769130793</v>
+        <v>2820.889175368755</v>
       </c>
       <c r="AC4" t="n">
-        <v>2416.340195375267</v>
+        <v>2551.667471614384</v>
       </c>
       <c r="AD4" t="n">
-        <v>1952344.421702788</v>
+        <v>2061685.587063255</v>
       </c>
       <c r="AE4" t="n">
-        <v>2671283.769130793</v>
+        <v>2820889.175368755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.282629977892479e-06</v>
+        <v>1.877722036437909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2416340.195375267</v>
+        <v>2551667.471614384</v>
       </c>
     </row>
     <row r="5">
@@ -4465,28 +4465,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1688.673533612667</v>
+        <v>1789.597275418132</v>
       </c>
       <c r="AB5" t="n">
-        <v>2310.517627707277</v>
+        <v>2448.605943686764</v>
       </c>
       <c r="AC5" t="n">
-        <v>2090.005068150751</v>
+        <v>2214.914429061325</v>
       </c>
       <c r="AD5" t="n">
-        <v>1688673.533612667</v>
+        <v>1789597.275418132</v>
       </c>
       <c r="AE5" t="n">
-        <v>2310517.627707277</v>
+        <v>2448605.943686765</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368500840043417e-06</v>
+        <v>2.003433748254966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.975</v>
       </c>
       <c r="AH5" t="n">
-        <v>2090005.068150751</v>
+        <v>2214914.429061325</v>
       </c>
     </row>
     <row r="6">
@@ -4571,28 +4571,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1541.231501614966</v>
+        <v>1633.737909373978</v>
       </c>
       <c r="AB6" t="n">
-        <v>2108.780934844648</v>
+        <v>2235.35228303521</v>
       </c>
       <c r="AC6" t="n">
-        <v>1907.521842115704</v>
+        <v>2022.013398478962</v>
       </c>
       <c r="AD6" t="n">
-        <v>1541231.501614966</v>
+        <v>1633737.909373978</v>
       </c>
       <c r="AE6" t="n">
-        <v>2108780.934844648</v>
+        <v>2235352.28303521</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.416793767790869e-06</v>
+        <v>2.074132777747863e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.19166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1907521.842115704</v>
+        <v>2022013.398478962</v>
       </c>
     </row>
     <row r="7">
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1529.600713344466</v>
+        <v>1622.107121103479</v>
       </c>
       <c r="AB7" t="n">
-        <v>2092.867177218786</v>
+        <v>2219.438525409348</v>
       </c>
       <c r="AC7" t="n">
-        <v>1893.126871182556</v>
+        <v>2007.618427545814</v>
       </c>
       <c r="AD7" t="n">
-        <v>1529600.713344466</v>
+        <v>1622107.121103479</v>
       </c>
       <c r="AE7" t="n">
-        <v>2092867.177218786</v>
+        <v>2219438.525409348</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.422075806763246e-06</v>
+        <v>2.081865484098649e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.11041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1893126.871182556</v>
+        <v>2007618.427545814</v>
       </c>
     </row>
   </sheetData>
@@ -4974,28 +4974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1802.013915280032</v>
+        <v>1918.267313238466</v>
       </c>
       <c r="AB2" t="n">
-        <v>2465.594938129306</v>
+        <v>2624.657965953986</v>
       </c>
       <c r="AC2" t="n">
-        <v>2230.282017718474</v>
+        <v>2374.164293413928</v>
       </c>
       <c r="AD2" t="n">
-        <v>1802013.915280032</v>
+        <v>1918267.313238466</v>
       </c>
       <c r="AE2" t="n">
-        <v>2465594.938129306</v>
+        <v>2624657.965953986</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233863872994735e-06</v>
+        <v>1.908939710937505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.43333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2230282.017718474</v>
+        <v>2374164.293413928</v>
       </c>
     </row>
     <row r="3">
@@ -5080,28 +5080,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1251.561638123299</v>
+        <v>1352.365709959274</v>
       </c>
       <c r="AB3" t="n">
-        <v>1712.441848282893</v>
+        <v>1850.366426530658</v>
       </c>
       <c r="AC3" t="n">
-        <v>1549.008801710002</v>
+        <v>1673.770051788161</v>
       </c>
       <c r="AD3" t="n">
-        <v>1251561.638123299</v>
+        <v>1352365.709959274</v>
       </c>
       <c r="AE3" t="n">
-        <v>1712441.848282892</v>
+        <v>1850366.426530658</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.468612916116703e-06</v>
+        <v>2.272125456405894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.8875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1549008.801710002</v>
+        <v>1673770.051788162</v>
       </c>
     </row>
   </sheetData>
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2784.810759413025</v>
+        <v>2921.005080912091</v>
       </c>
       <c r="AB2" t="n">
-        <v>3810.300938208999</v>
+        <v>3996.64801735344</v>
       </c>
       <c r="AC2" t="n">
-        <v>3446.651164457142</v>
+        <v>3615.213539907799</v>
       </c>
       <c r="AD2" t="n">
-        <v>2784810.759413025</v>
+        <v>2921005.080912091</v>
       </c>
       <c r="AE2" t="n">
-        <v>3810300.938208999</v>
+        <v>3996648.01735344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012690655043373e-06</v>
+        <v>1.530473278862025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3446651.164457142</v>
+        <v>3615213.539907799</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1553.095762208025</v>
+        <v>1649.268097002939</v>
       </c>
       <c r="AB3" t="n">
-        <v>2125.014139602309</v>
+        <v>2256.601370892678</v>
       </c>
       <c r="AC3" t="n">
-        <v>1922.20577259474</v>
+        <v>2041.234503214596</v>
       </c>
       <c r="AD3" t="n">
-        <v>1553095.762208025</v>
+        <v>1649268.097002939</v>
       </c>
       <c r="AE3" t="n">
-        <v>2125014.139602309</v>
+        <v>2256601.370892678</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.37662132474477e-06</v>
+        <v>2.080479504911868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.38125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1922205.77259474</v>
+        <v>2041234.503214596</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1336.565740244947</v>
+        <v>1432.73798553131</v>
       </c>
       <c r="AB4" t="n">
-        <v>1828.748210922047</v>
+        <v>1960.335319742868</v>
       </c>
       <c r="AC4" t="n">
-        <v>1654.21504833588</v>
+        <v>1773.243668174509</v>
       </c>
       <c r="AD4" t="n">
-        <v>1336565.740244947</v>
+        <v>1432737.98553131</v>
       </c>
       <c r="AE4" t="n">
-        <v>1828748.210922047</v>
+        <v>1960335.319742868</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.464422216726736e-06</v>
+        <v>2.213172463387815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.92083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1654215.04833588</v>
+        <v>1773243.668174509</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1344.733813685404</v>
+        <v>1440.906058971768</v>
       </c>
       <c r="AB5" t="n">
-        <v>1839.924129353249</v>
+        <v>1971.51123817407</v>
       </c>
       <c r="AC5" t="n">
-        <v>1664.324352797508</v>
+        <v>1783.352972636138</v>
       </c>
       <c r="AD5" t="n">
-        <v>1344733.813685404</v>
+        <v>1440906.058971768</v>
       </c>
       <c r="AE5" t="n">
-        <v>1839924.129353249</v>
+        <v>1971511.23817407</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464100011618546e-06</v>
+        <v>2.212685516751206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.92291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1664324.352797508</v>
+        <v>1783352.972636138</v>
       </c>
     </row>
   </sheetData>
@@ -5992,28 +5992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255.204588369871</v>
+        <v>1353.469139652706</v>
       </c>
       <c r="AB2" t="n">
-        <v>1717.426293525875</v>
+        <v>1851.876187717094</v>
       </c>
       <c r="AC2" t="n">
-        <v>1553.517538494706</v>
+        <v>1675.135723485927</v>
       </c>
       <c r="AD2" t="n">
-        <v>1255204.588369871</v>
+        <v>1353469.139652706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1717426.293525875</v>
+        <v>1851876.187717094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.41719164451171e-06</v>
+        <v>2.23985437416454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.71041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1553517.538494706</v>
+        <v>1675135.723485927</v>
       </c>
     </row>
     <row r="3">
@@ -6098,28 +6098,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1214.141379568108</v>
+        <v>1312.235338650351</v>
       </c>
       <c r="AB3" t="n">
-        <v>1661.241799662385</v>
+        <v>1795.458282078757</v>
       </c>
       <c r="AC3" t="n">
-        <v>1502.695213870116</v>
+        <v>1624.102263578686</v>
       </c>
       <c r="AD3" t="n">
-        <v>1214141.379568108</v>
+        <v>1312235.33865035</v>
       </c>
       <c r="AE3" t="n">
-        <v>1661241.799662385</v>
+        <v>1795458.282078757</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446749263655543e-06</v>
+        <v>2.286569836244487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.18541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1502695.213870116</v>
+        <v>1624102.263578685</v>
       </c>
     </row>
   </sheetData>
@@ -6395,28 +6395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6564.223459544575</v>
+        <v>6775.907344146442</v>
       </c>
       <c r="AB2" t="n">
-        <v>8981.460130449981</v>
+        <v>9271.095360196154</v>
       </c>
       <c r="AC2" t="n">
-        <v>8124.282181157961</v>
+        <v>8386.275031082747</v>
       </c>
       <c r="AD2" t="n">
-        <v>6564223.459544575</v>
+        <v>6775907.344146442</v>
       </c>
       <c r="AE2" t="n">
-        <v>8981460.13044998</v>
+        <v>9271095.360196155</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.499866170358683e-07</v>
+        <v>9.476065769506006e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>8124282.181157961</v>
+        <v>8386275.031082748</v>
       </c>
     </row>
     <row r="3">
@@ -6501,28 +6501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2657.410992826171</v>
+        <v>2784.438391758204</v>
       </c>
       <c r="AB3" t="n">
-        <v>3635.986957083828</v>
+        <v>3809.791448355972</v>
       </c>
       <c r="AC3" t="n">
-        <v>3288.973465039355</v>
+        <v>3446.190299600615</v>
       </c>
       <c r="AD3" t="n">
-        <v>2657410.992826171</v>
+        <v>2784438.391758204</v>
       </c>
       <c r="AE3" t="n">
-        <v>3635986.957083828</v>
+        <v>3809791.448355972</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09103828147185e-06</v>
+        <v>1.590609751232083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.55833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3288973.465039355</v>
+        <v>3446190.299600615</v>
       </c>
     </row>
     <row r="4">
@@ -6607,28 +6607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2064.286032485277</v>
+        <v>2174.36506611243</v>
       </c>
       <c r="AB4" t="n">
-        <v>2824.44721951872</v>
+        <v>2975.06220967161</v>
       </c>
       <c r="AC4" t="n">
-        <v>2554.885941024423</v>
+        <v>2691.126447906587</v>
       </c>
       <c r="AD4" t="n">
-        <v>2064286.032485277</v>
+        <v>2174365.06611243</v>
       </c>
       <c r="AE4" t="n">
-        <v>2824447.21951872</v>
+        <v>2975062.20967161</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252712357177274e-06</v>
+        <v>1.826312169474973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.87291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2554885.941024423</v>
+        <v>2691126.447906587</v>
       </c>
     </row>
     <row r="5">
@@ -6713,28 +6713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1799.363540199203</v>
+        <v>1900.883139827895</v>
       </c>
       <c r="AB5" t="n">
-        <v>2461.96857801742</v>
+        <v>2600.872172958038</v>
       </c>
       <c r="AC5" t="n">
-        <v>2227.001752326038</v>
+        <v>2352.648583117944</v>
       </c>
       <c r="AD5" t="n">
-        <v>1799363.540199203</v>
+        <v>1900883.139827895</v>
       </c>
       <c r="AE5" t="n">
-        <v>2461968.57801742</v>
+        <v>2600872.172958038</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339157885167778e-06</v>
+        <v>1.952339919469783e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.26666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2227001.752326038</v>
+        <v>2352648.583117944</v>
       </c>
     </row>
     <row r="6">
@@ -6819,28 +6819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1625.382563547548</v>
+        <v>1718.513321378371</v>
       </c>
       <c r="AB6" t="n">
-        <v>2223.920130263645</v>
+        <v>2351.34574176684</v>
       </c>
       <c r="AC6" t="n">
-        <v>2011.672314322789</v>
+        <v>2126.936604307087</v>
       </c>
       <c r="AD6" t="n">
-        <v>1625382.563547548</v>
+        <v>1718513.321378371</v>
       </c>
       <c r="AE6" t="n">
-        <v>2223920.130263645</v>
+        <v>2351345.74176684</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.393148950227592e-06</v>
+        <v>2.031052752944051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.36458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2011672.314322789</v>
+        <v>2126936.604307087</v>
       </c>
     </row>
     <row r="7">
@@ -6925,28 +6925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1561.584406238357</v>
+        <v>1654.71516406918</v>
       </c>
       <c r="AB7" t="n">
-        <v>2136.628676857154</v>
+        <v>2264.054288360348</v>
       </c>
       <c r="AC7" t="n">
-        <v>1932.711834715088</v>
+        <v>2047.976124699386</v>
       </c>
       <c r="AD7" t="n">
-        <v>1561584.406238357</v>
+        <v>1654715.16406918</v>
       </c>
       <c r="AE7" t="n">
-        <v>2136628.676857153</v>
+        <v>2264054.288360348</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413040395249628e-06</v>
+        <v>2.060052217908255e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.05</v>
       </c>
       <c r="AH7" t="n">
-        <v>1932711.834715088</v>
+        <v>2047976.124699387</v>
       </c>
     </row>
     <row r="8">
@@ -7031,28 +7031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1567.029702237438</v>
+        <v>1660.160460068261</v>
       </c>
       <c r="AB8" t="n">
-        <v>2144.0791710726</v>
+        <v>2271.504782575795</v>
       </c>
       <c r="AC8" t="n">
-        <v>1939.451264219447</v>
+        <v>2054.715554203745</v>
       </c>
       <c r="AD8" t="n">
-        <v>1567029.702237438</v>
+        <v>1660160.460068261</v>
       </c>
       <c r="AE8" t="n">
-        <v>2144079.1710726</v>
+        <v>2271504.782575794</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.41289083551262e-06</v>
+        <v>2.059834176818298e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.05416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1939451.264219447</v>
+        <v>2054715.554203745</v>
       </c>
     </row>
   </sheetData>
@@ -7328,28 +7328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1188.224176418824</v>
+        <v>1284.798630826373</v>
       </c>
       <c r="AB2" t="n">
-        <v>1625.780738927228</v>
+        <v>1757.918168011869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1470.618507001611</v>
+        <v>1590.14492531046</v>
       </c>
       <c r="AD2" t="n">
-        <v>1188224.176418824</v>
+        <v>1284798.630826373</v>
       </c>
       <c r="AE2" t="n">
-        <v>1625780.738927228</v>
+        <v>1757918.168011869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415783739247296e-06</v>
+        <v>2.268418114587027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1470618.507001611</v>
+        <v>1590144.92531046</v>
       </c>
     </row>
     <row r="3">
@@ -7434,28 +7434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200.327417850918</v>
+        <v>1296.901872258467</v>
       </c>
       <c r="AB3" t="n">
-        <v>1642.340927811947</v>
+        <v>1774.478356896588</v>
       </c>
       <c r="AC3" t="n">
-        <v>1485.598214701543</v>
+        <v>1605.124633010392</v>
       </c>
       <c r="AD3" t="n">
-        <v>1200327.417850918</v>
+        <v>1296901.872258467</v>
       </c>
       <c r="AE3" t="n">
-        <v>1642340.927811946</v>
+        <v>1774478.356896588</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.416141712379849e-06</v>
+        <v>2.268991671632435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1485598.214701543</v>
+        <v>1605124.633010393</v>
       </c>
     </row>
   </sheetData>
@@ -7731,28 +7731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4041.816199336064</v>
+        <v>4206.395114920951</v>
       </c>
       <c r="AB2" t="n">
-        <v>5530.191236277979</v>
+        <v>5755.375369290554</v>
       </c>
       <c r="AC2" t="n">
-        <v>5002.397546359548</v>
+        <v>5206.090421765311</v>
       </c>
       <c r="AD2" t="n">
-        <v>4041816.199336064</v>
+        <v>4206395.11492095</v>
       </c>
       <c r="AE2" t="n">
-        <v>5530191.236277979</v>
+        <v>5755375.369290554</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.401104475622858e-07</v>
+        <v>1.247432282900256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.55833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5002397.546359548</v>
+        <v>5206090.421765311</v>
       </c>
     </row>
     <row r="3">
@@ -7837,28 +7837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2011.997405216376</v>
+        <v>2118.943920556003</v>
       </c>
       <c r="AB3" t="n">
-        <v>2752.903612877981</v>
+        <v>2899.232553312926</v>
       </c>
       <c r="AC3" t="n">
-        <v>2490.170355789393</v>
+        <v>2622.533867523185</v>
       </c>
       <c r="AD3" t="n">
-        <v>2011997.405216376</v>
+        <v>2118943.920556003</v>
       </c>
       <c r="AE3" t="n">
-        <v>2752903.612877981</v>
+        <v>2899232.553312926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240340744068916e-06</v>
+        <v>1.841711515953238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.11666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2490170.355789393</v>
+        <v>2622533.867523185</v>
       </c>
     </row>
     <row r="4">
@@ -7943,28 +7943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1595.932477959954</v>
+        <v>1694.560439623037</v>
       </c>
       <c r="AB4" t="n">
-        <v>2183.62522391662</v>
+        <v>2318.572352222629</v>
       </c>
       <c r="AC4" t="n">
-        <v>1975.223097283267</v>
+        <v>2097.291061063235</v>
       </c>
       <c r="AD4" t="n">
-        <v>1595932.477959954</v>
+        <v>1694560.439623037</v>
       </c>
       <c r="AE4" t="n">
-        <v>2183625.22391662</v>
+        <v>2318572.352222629</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385723544082008e-06</v>
+        <v>2.057582177532312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1975223.097283267</v>
+        <v>2097291.061063235</v>
       </c>
     </row>
     <row r="5">
@@ -8049,28 +8049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1432.353598237059</v>
+        <v>1522.833687932741</v>
       </c>
       <c r="AB5" t="n">
-        <v>1959.809384088904</v>
+        <v>2083.608234510372</v>
       </c>
       <c r="AC5" t="n">
-        <v>1772.767927081204</v>
+        <v>1884.751588971226</v>
       </c>
       <c r="AD5" t="n">
-        <v>1432353.59823706</v>
+        <v>1522833.687932741</v>
       </c>
       <c r="AE5" t="n">
-        <v>1959809.384088904</v>
+        <v>2083608.234510372</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444032153712928e-06</v>
+        <v>2.144161319876861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.43333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1772767.927081204</v>
+        <v>1884751.588971226</v>
       </c>
     </row>
     <row r="6">
@@ -8155,28 +8155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1437.090845605577</v>
+        <v>1527.570935301259</v>
       </c>
       <c r="AB6" t="n">
-        <v>1966.291094931114</v>
+        <v>2090.089945352582</v>
       </c>
       <c r="AC6" t="n">
-        <v>1778.631032537772</v>
+        <v>1890.614694427793</v>
       </c>
       <c r="AD6" t="n">
-        <v>1437090.845605577</v>
+        <v>1527570.935301259</v>
       </c>
       <c r="AE6" t="n">
-        <v>1966291.094931114</v>
+        <v>2090089.945352582</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.445120581092705e-06</v>
+        <v>2.145777463867293e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.41458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1778631.032537772</v>
+        <v>1890614.694427793</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5138.959146650212</v>
+        <v>5322.760940471868</v>
       </c>
       <c r="AB2" t="n">
-        <v>7031.350619324042</v>
+        <v>7282.8363423937</v>
       </c>
       <c r="AC2" t="n">
-        <v>6360.288384778064</v>
+        <v>6587.772663400375</v>
       </c>
       <c r="AD2" t="n">
-        <v>5138959.146650213</v>
+        <v>5322760.940471868</v>
       </c>
       <c r="AE2" t="n">
-        <v>7031350.619324042</v>
+        <v>7282836.3423937</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.407201334141499e-07</v>
+        <v>1.089186349327935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.84583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6360288.384778064</v>
+        <v>6587772.663400374</v>
       </c>
     </row>
     <row r="3">
@@ -8558,28 +8558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2326.190820679423</v>
+        <v>2443.039314181885</v>
       </c>
       <c r="AB3" t="n">
-        <v>3182.796905149918</v>
+        <v>3342.674168951708</v>
       </c>
       <c r="AC3" t="n">
-        <v>2879.035235605802</v>
+        <v>3023.654037739492</v>
       </c>
       <c r="AD3" t="n">
-        <v>2326190.820679423</v>
+        <v>2443039.314181885</v>
       </c>
       <c r="AE3" t="n">
-        <v>3182796.905149918</v>
+        <v>3342674.168951708</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162117066574072e-06</v>
+        <v>1.708826300426469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2879035.235605802</v>
+        <v>3023654.037739492</v>
       </c>
     </row>
     <row r="4">
@@ -8664,28 +8664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1832.738285480707</v>
+        <v>1932.955107594446</v>
       </c>
       <c r="AB4" t="n">
-        <v>2507.63337690142</v>
+        <v>2644.754454171593</v>
       </c>
       <c r="AC4" t="n">
-        <v>2268.308366895496</v>
+        <v>2392.342801001646</v>
       </c>
       <c r="AD4" t="n">
-        <v>1832738.285480707</v>
+        <v>1932955.107594446</v>
       </c>
       <c r="AE4" t="n">
-        <v>2507633.376901419</v>
+        <v>2644754.454171593</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316598805628359e-06</v>
+        <v>1.935982811783631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2268308.366895496</v>
+        <v>2392342.801001646</v>
       </c>
     </row>
     <row r="5">
@@ -8770,28 +8770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1588.362294592789</v>
+        <v>1688.579027197977</v>
       </c>
       <c r="AB5" t="n">
-        <v>2173.267365060744</v>
+        <v>2310.38831986137</v>
       </c>
       <c r="AC5" t="n">
-        <v>1965.85377793925</v>
+        <v>2089.888101264173</v>
       </c>
       <c r="AD5" t="n">
-        <v>1588362.294592789</v>
+        <v>1688579.027197977</v>
       </c>
       <c r="AE5" t="n">
-        <v>2173267.365060744</v>
+        <v>2310388.31986137</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.397343698822415e-06</v>
+        <v>2.054713532709959e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.71458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1965853.77793925</v>
+        <v>2089888.101264173</v>
       </c>
     </row>
     <row r="6">
@@ -8876,28 +8876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1495.281966341279</v>
+        <v>1587.140282333372</v>
       </c>
       <c r="AB6" t="n">
-        <v>2045.910753532763</v>
+        <v>2171.595353976035</v>
       </c>
       <c r="AC6" t="n">
-        <v>1850.651902669373</v>
+        <v>1964.341341245783</v>
       </c>
       <c r="AD6" t="n">
-        <v>1495281.966341279</v>
+        <v>1587140.282333372</v>
       </c>
       <c r="AE6" t="n">
-        <v>2045910.753532763</v>
+        <v>2171595.353976035</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.428879911824622e-06</v>
+        <v>2.101085719939676e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.21458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1850651.902669373</v>
+        <v>1964341.341245783</v>
       </c>
     </row>
     <row r="7">
@@ -8982,28 +8982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1499.465160195588</v>
+        <v>1591.323476187681</v>
       </c>
       <c r="AB7" t="n">
-        <v>2051.634383913716</v>
+        <v>2177.318984356988</v>
       </c>
       <c r="AC7" t="n">
-        <v>1855.829277799933</v>
+        <v>1969.518716376344</v>
       </c>
       <c r="AD7" t="n">
-        <v>1499465.160195588</v>
+        <v>1591323.476187681</v>
       </c>
       <c r="AE7" t="n">
-        <v>2051634.383913716</v>
+        <v>2177318.984356988</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429794004955121e-06</v>
+        <v>2.102429841308653e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.19791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1855829.277799933</v>
+        <v>1969518.716376344</v>
       </c>
     </row>
   </sheetData>
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8466.226007096731</v>
+        <v>8697.854626375598</v>
       </c>
       <c r="AB2" t="n">
-        <v>11583.86392644129</v>
+        <v>11900.78842207213</v>
       </c>
       <c r="AC2" t="n">
-        <v>10478.31621135642</v>
+        <v>10764.99387793057</v>
       </c>
       <c r="AD2" t="n">
-        <v>8466226.007096732</v>
+        <v>8697854.626375599</v>
       </c>
       <c r="AE2" t="n">
-        <v>11583863.92644129</v>
+        <v>11900788.42207213</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.665860883782291e-07</v>
+        <v>8.197211753247386e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.06666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>10478316.21135643</v>
+        <v>10764993.87793057</v>
       </c>
     </row>
     <row r="3">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3013.665234624389</v>
+        <v>3150.806476248513</v>
       </c>
       <c r="AB3" t="n">
-        <v>4123.429727540089</v>
+        <v>4311.072424574801</v>
       </c>
       <c r="AC3" t="n">
-        <v>3729.895381613477</v>
+        <v>3899.629723001369</v>
       </c>
       <c r="AD3" t="n">
-        <v>3013665.234624389</v>
+        <v>3150806.476248513</v>
       </c>
       <c r="AE3" t="n">
-        <v>4123429.727540088</v>
+        <v>4311072.424574801</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.025237012243191e-06</v>
+        <v>1.48328472212927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.88125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3729895.381613477</v>
+        <v>3899629.723001369</v>
       </c>
     </row>
     <row r="4">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2305.67246397811</v>
+        <v>2417.238401686389</v>
       </c>
       <c r="AB4" t="n">
-        <v>3154.722784305168</v>
+        <v>3307.372222219444</v>
       </c>
       <c r="AC4" t="n">
-        <v>2853.6404694522</v>
+        <v>2991.721259256763</v>
       </c>
       <c r="AD4" t="n">
-        <v>2305672.46397811</v>
+        <v>2417238.401686389</v>
       </c>
       <c r="AE4" t="n">
-        <v>3154722.784305168</v>
+        <v>3307372.222219444</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.194786391921389e-06</v>
+        <v>1.728584103169868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2853640.4694522</v>
+        <v>2991721.259256762</v>
       </c>
     </row>
     <row r="5">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1998.328695256758</v>
+        <v>2109.723951255894</v>
       </c>
       <c r="AB5" t="n">
-        <v>2734.201480890308</v>
+        <v>2886.617384560178</v>
       </c>
       <c r="AC5" t="n">
-        <v>2473.253129030016</v>
+        <v>2611.122672770699</v>
       </c>
       <c r="AD5" t="n">
-        <v>1998328.695256758</v>
+        <v>2109723.951255894</v>
       </c>
       <c r="AE5" t="n">
-        <v>2734201.480890308</v>
+        <v>2886617.384560178</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.285810733656692e-06</v>
+        <v>1.860275618229825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.825</v>
       </c>
       <c r="AH5" t="n">
-        <v>2473253.129030016</v>
+        <v>2611122.672770699</v>
       </c>
     </row>
     <row r="6">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1813.051976273404</v>
+        <v>1915.950577918782</v>
       </c>
       <c r="AB6" t="n">
-        <v>2480.697700145321</v>
+        <v>2621.488106482446</v>
       </c>
       <c r="AC6" t="n">
-        <v>2243.94339332454</v>
+        <v>2371.296960881426</v>
       </c>
       <c r="AD6" t="n">
-        <v>1813051.976273404</v>
+        <v>1915950.577918782</v>
       </c>
       <c r="AE6" t="n">
-        <v>2480697.700145321</v>
+        <v>2621488.106482446</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.342719328570363e-06</v>
+        <v>1.942609408743885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.81458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2243943.39332454</v>
+        <v>2371296.960881426</v>
       </c>
     </row>
     <row r="7">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1681.33217146862</v>
+        <v>1775.64886741422</v>
       </c>
       <c r="AB7" t="n">
-        <v>2300.472852143752</v>
+        <v>2429.521116495481</v>
       </c>
       <c r="AC7" t="n">
-        <v>2080.918951869078</v>
+        <v>2197.651030991455</v>
       </c>
       <c r="AD7" t="n">
-        <v>1681332.17146862</v>
+        <v>1775648.86741422</v>
       </c>
       <c r="AE7" t="n">
-        <v>2300472.852143752</v>
+        <v>2429521.116495481</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.3810995437447e-06</v>
+        <v>1.998136848858019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.18125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2080918.951869078</v>
+        <v>2197651.030991455</v>
       </c>
     </row>
     <row r="8">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1615.920147743108</v>
+        <v>1718.733408533915</v>
       </c>
       <c r="AB8" t="n">
-        <v>2210.973235507688</v>
+        <v>2351.646874722615</v>
       </c>
       <c r="AC8" t="n">
-        <v>1999.961053031259</v>
+        <v>2127.208997556207</v>
       </c>
       <c r="AD8" t="n">
-        <v>1615920.147743108</v>
+        <v>1718733.408533915</v>
       </c>
       <c r="AE8" t="n">
-        <v>2210973.235507688</v>
+        <v>2351646.874722615</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397422163991257e-06</v>
+        <v>2.021751967067478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.92291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1999961.053031259</v>
+        <v>2127208.997556207</v>
       </c>
     </row>
     <row r="9">
@@ -10021,28 +10021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1619.800332615169</v>
+        <v>1722.613593405976</v>
       </c>
       <c r="AB9" t="n">
-        <v>2216.282275631317</v>
+        <v>2356.955914846244</v>
       </c>
       <c r="AC9" t="n">
-        <v>2004.763405816773</v>
+        <v>2132.011350341721</v>
       </c>
       <c r="AD9" t="n">
-        <v>1619800.332615169</v>
+        <v>1722613.593405976</v>
       </c>
       <c r="AE9" t="n">
-        <v>2216282.275631317</v>
+        <v>2356955.914846244</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.398304467788368e-06</v>
+        <v>2.023028459943665e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.90833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2004763.405816773</v>
+        <v>2132011.350341721</v>
       </c>
     </row>
   </sheetData>
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3156.023731304868</v>
+        <v>3301.662956647878</v>
       </c>
       <c r="AB2" t="n">
-        <v>4318.210903111954</v>
+        <v>4517.480916375429</v>
       </c>
       <c r="AC2" t="n">
-        <v>3906.086915165853</v>
+        <v>4086.338878040675</v>
       </c>
       <c r="AD2" t="n">
-        <v>3156023.731304868</v>
+        <v>3301662.956647878</v>
       </c>
       <c r="AE2" t="n">
-        <v>4318210.903111954</v>
+        <v>4517480.916375429</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.518132780812855e-07</v>
+        <v>1.429323355128704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.82291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3906086.915165854</v>
+        <v>4086338.878040675</v>
       </c>
     </row>
     <row r="3">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1700.769919084684</v>
+        <v>1805.930098261699</v>
       </c>
       <c r="AB3" t="n">
-        <v>2327.068435964955</v>
+        <v>2470.953232454623</v>
       </c>
       <c r="AC3" t="n">
-        <v>2104.976290497522</v>
+        <v>2235.128923953796</v>
       </c>
       <c r="AD3" t="n">
-        <v>1700769.919084684</v>
+        <v>1805930.098261699</v>
       </c>
       <c r="AE3" t="n">
-        <v>2327068.435964955</v>
+        <v>2470953.232454623</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.327893269621342e-06</v>
+        <v>1.994076892070749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.96041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2104976.290497522</v>
+        <v>2235128.923953796</v>
       </c>
     </row>
     <row r="4">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1381.976243942217</v>
+        <v>1479.040613886033</v>
       </c>
       <c r="AB4" t="n">
-        <v>1890.880865450685</v>
+        <v>2023.688618585594</v>
       </c>
       <c r="AC4" t="n">
-        <v>1710.417849520034</v>
+        <v>1830.550617092599</v>
       </c>
       <c r="AD4" t="n">
-        <v>1381976.243942217</v>
+        <v>1479040.613886033</v>
       </c>
       <c r="AE4" t="n">
-        <v>1890880.865450685</v>
+        <v>2023688.618585594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452139662765498e-06</v>
+        <v>2.180655789004648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.825</v>
       </c>
       <c r="AH4" t="n">
-        <v>1710417.849520034</v>
+        <v>1830550.617092599</v>
       </c>
     </row>
     <row r="5">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1373.771953735988</v>
+        <v>1470.836323679803</v>
       </c>
       <c r="AB5" t="n">
-        <v>1879.655393642782</v>
+        <v>2012.463146777691</v>
       </c>
       <c r="AC5" t="n">
-        <v>1700.263720986428</v>
+        <v>1820.396488558994</v>
       </c>
       <c r="AD5" t="n">
-        <v>1373771.953735988</v>
+        <v>1470836.323679803</v>
       </c>
       <c r="AE5" t="n">
-        <v>1879655.393642782</v>
+        <v>2012463.146777691</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.457866769235651e-06</v>
+        <v>2.189256096673817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.73333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1700263.720986428</v>
+        <v>1820396.488558994</v>
       </c>
     </row>
   </sheetData>
@@ -10933,28 +10933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2105.534065623267</v>
+        <v>2231.094455787414</v>
       </c>
       <c r="AB2" t="n">
-        <v>2880.88459819291</v>
+        <v>3052.681863349137</v>
       </c>
       <c r="AC2" t="n">
-        <v>2605.937015488306</v>
+        <v>2761.338190776884</v>
       </c>
       <c r="AD2" t="n">
-        <v>2105534.065623267</v>
+        <v>2231094.455787414</v>
       </c>
       <c r="AE2" t="n">
-        <v>2880884.59819291</v>
+        <v>3052681.863349137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.151886215952301e-06</v>
+        <v>1.766701738798516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2605937.015488307</v>
+        <v>2761338.190776885</v>
       </c>
     </row>
     <row r="3">
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1290.747360500267</v>
+        <v>1385.045664405232</v>
       </c>
       <c r="AB3" t="n">
-        <v>1766.057482391122</v>
+        <v>1895.080581941455</v>
       </c>
       <c r="AC3" t="n">
-        <v>1597.507434948957</v>
+        <v>1714.216750963264</v>
       </c>
       <c r="AD3" t="n">
-        <v>1290747.360500267</v>
+        <v>1385045.664405232</v>
       </c>
       <c r="AE3" t="n">
-        <v>1766057.482391122</v>
+        <v>1895080.581941455</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464756475730454e-06</v>
+        <v>2.24656548255504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1597507.434948957</v>
+        <v>1714216.750963264</v>
       </c>
     </row>
     <row r="4">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1289.539941939093</v>
+        <v>1383.667653643466</v>
       </c>
       <c r="AB4" t="n">
-        <v>1764.405439048176</v>
+        <v>1893.195126823663</v>
       </c>
       <c r="AC4" t="n">
-        <v>1596.013060304005</v>
+        <v>1712.511241035661</v>
       </c>
       <c r="AD4" t="n">
-        <v>1289539.941939093</v>
+        <v>1383667.653643466</v>
       </c>
       <c r="AE4" t="n">
-        <v>1764405.439048176</v>
+        <v>1893195.126823663</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.470059361489406e-06</v>
+        <v>2.254698766347523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.48541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1596013.060304005</v>
+        <v>1712511.24103566</v>
       </c>
     </row>
   </sheetData>
@@ -19831,28 +19831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1504.823166092631</v>
+        <v>1612.093466499339</v>
       </c>
       <c r="AB2" t="n">
-        <v>2058.965443960587</v>
+        <v>2205.737401408701</v>
       </c>
       <c r="AC2" t="n">
-        <v>1862.460671765138</v>
+        <v>1995.22491959014</v>
       </c>
       <c r="AD2" t="n">
-        <v>1504823.16609263</v>
+        <v>1612093.466499339</v>
       </c>
       <c r="AE2" t="n">
-        <v>2058965.443960587</v>
+        <v>2205737.401408701</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.326827363716772e-06</v>
+        <v>2.073141583652685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.91875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1862460.671765138</v>
+        <v>1995224.91959014</v>
       </c>
     </row>
     <row r="3">
@@ -19937,28 +19937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1231.852258825521</v>
+        <v>1331.283706941546</v>
       </c>
       <c r="AB3" t="n">
-        <v>1685.474606011226</v>
+        <v>1821.521099929471</v>
       </c>
       <c r="AC3" t="n">
-        <v>1524.615275191981</v>
+        <v>1647.677682673121</v>
       </c>
       <c r="AD3" t="n">
-        <v>1231852.258825521</v>
+        <v>1331283.706941546</v>
       </c>
       <c r="AE3" t="n">
-        <v>1685474.606011226</v>
+        <v>1821521.099929471</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461910046224371e-06</v>
+        <v>2.284205610515516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.42916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1524615.275191981</v>
+        <v>1647677.682673121</v>
       </c>
     </row>
   </sheetData>
@@ -20234,28 +20234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1189.625360854114</v>
+        <v>1291.624695736399</v>
       </c>
       <c r="AB2" t="n">
-        <v>1627.697901287486</v>
+        <v>1767.257891166498</v>
       </c>
       <c r="AC2" t="n">
-        <v>1472.352698076961</v>
+        <v>1598.593278395595</v>
       </c>
       <c r="AD2" t="n">
-        <v>1189625.360854114</v>
+        <v>1291624.695736399</v>
       </c>
       <c r="AE2" t="n">
-        <v>1627697.901287486</v>
+        <v>1767257.891166497</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352885986603764e-06</v>
+        <v>2.204766003167681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1472352.698076961</v>
+        <v>1598593.278395595</v>
       </c>
     </row>
   </sheetData>
@@ -20531,28 +20531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4564.395678121823</v>
+        <v>4738.551445690897</v>
       </c>
       <c r="AB2" t="n">
-        <v>6245.20753373219</v>
+        <v>6483.495138130421</v>
       </c>
       <c r="AC2" t="n">
-        <v>5649.173691916379</v>
+        <v>5864.719461789588</v>
       </c>
       <c r="AD2" t="n">
-        <v>4564395.678121823</v>
+        <v>4738551.445690896</v>
       </c>
       <c r="AE2" t="n">
-        <v>6245207.533732191</v>
+        <v>6483495.138130421</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.88582391261296e-07</v>
+        <v>1.165036487827879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.64791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5649173.691916378</v>
+        <v>5864719.461789588</v>
       </c>
     </row>
     <row r="3">
@@ -20637,28 +20637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2161.710642076346</v>
+        <v>2277.786040170874</v>
       </c>
       <c r="AB3" t="n">
-        <v>2957.747868431652</v>
+        <v>3116.567348989914</v>
       </c>
       <c r="AC3" t="n">
-        <v>2675.464563093741</v>
+        <v>2819.126535331946</v>
       </c>
       <c r="AD3" t="n">
-        <v>2161710.642076346</v>
+        <v>2277786.040170874</v>
       </c>
       <c r="AE3" t="n">
-        <v>2957747.868431652</v>
+        <v>3116567.348989914</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.200491671535733e-06</v>
+        <v>1.77358335181134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2675464.56309374</v>
+        <v>2819126.535331946</v>
       </c>
     </row>
     <row r="4">
@@ -20743,28 +20743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1713.78134719742</v>
+        <v>1813.347694868074</v>
       </c>
       <c r="AB4" t="n">
-        <v>2344.871245932496</v>
+        <v>2481.102315372733</v>
       </c>
       <c r="AC4" t="n">
-        <v>2121.080025268161</v>
+        <v>2244.309392642529</v>
       </c>
       <c r="AD4" t="n">
-        <v>1713781.34719742</v>
+        <v>1813347.694868074</v>
       </c>
       <c r="AE4" t="n">
-        <v>2344871.245932496</v>
+        <v>2481102.315372733</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349283705164938e-06</v>
+        <v>1.993405846197595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.75625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2121080.025268161</v>
+        <v>2244309.392642529</v>
       </c>
     </row>
     <row r="5">
@@ -20849,28 +20849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1494.590132817312</v>
+        <v>1593.900547432803</v>
       </c>
       <c r="AB5" t="n">
-        <v>2044.96415638373</v>
+        <v>2180.845046926923</v>
       </c>
       <c r="AC5" t="n">
-        <v>1849.795647423686</v>
+        <v>1972.708256483464</v>
       </c>
       <c r="AD5" t="n">
-        <v>1494590.132817312</v>
+        <v>1593900.547432803</v>
       </c>
       <c r="AE5" t="n">
-        <v>2044964.15638373</v>
+        <v>2180845.046926923</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.425449223930663e-06</v>
+        <v>2.105931321607312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.4875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1849795.647423686</v>
+        <v>1972708.256483464</v>
       </c>
     </row>
     <row r="6">
@@ -20955,28 +20955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1465.414870226823</v>
+        <v>1556.598770912236</v>
       </c>
       <c r="AB6" t="n">
-        <v>2005.045274985679</v>
+        <v>2129.807110653247</v>
       </c>
       <c r="AC6" t="n">
-        <v>1813.686568039763</v>
+        <v>1926.541309215554</v>
       </c>
       <c r="AD6" t="n">
-        <v>1465414.870226823</v>
+        <v>1556598.770912236</v>
       </c>
       <c r="AE6" t="n">
-        <v>2005045.274985678</v>
+        <v>2129807.110653247</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.437604932986203e-06</v>
+        <v>2.123889932834318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.29791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1813686.568039763</v>
+        <v>1926541.309215554</v>
       </c>
     </row>
     <row r="7">
@@ -21061,28 +21061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1472.702656332976</v>
+        <v>1563.886557018389</v>
       </c>
       <c r="AB7" t="n">
-        <v>2015.016745450549</v>
+        <v>2139.778581118117</v>
       </c>
       <c r="AC7" t="n">
-        <v>1822.706375358512</v>
+        <v>1935.561116534304</v>
       </c>
       <c r="AD7" t="n">
-        <v>1472702.656332976</v>
+        <v>1563886.557018389</v>
       </c>
       <c r="AE7" t="n">
-        <v>2015016.745450549</v>
+        <v>2139778.581118117</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.437604932986203e-06</v>
+        <v>2.123889932834318e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.29791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1822706.375358512</v>
+        <v>1935561.116534304</v>
       </c>
     </row>
   </sheetData>
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7441.004273541082</v>
+        <v>7671.030787676447</v>
       </c>
       <c r="AB2" t="n">
-        <v>10181.11032099962</v>
+        <v>10495.84274569324</v>
       </c>
       <c r="AC2" t="n">
-        <v>9209.439441241118</v>
+        <v>9494.134245051693</v>
       </c>
       <c r="AD2" t="n">
-        <v>7441004.273541082</v>
+        <v>7671030.787676447</v>
       </c>
       <c r="AE2" t="n">
-        <v>10181110.32099962</v>
+        <v>10495842.74569324</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.074776476703295e-07</v>
+        <v>8.821602176339303e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9209439.441241119</v>
+        <v>9494134.245051693</v>
       </c>
     </row>
     <row r="3">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2837.419382306382</v>
+        <v>2965.183532716389</v>
       </c>
       <c r="AB3" t="n">
-        <v>3882.282376980332</v>
+        <v>4057.094924127823</v>
       </c>
       <c r="AC3" t="n">
-        <v>3511.76279573872</v>
+        <v>3669.891478737399</v>
       </c>
       <c r="AD3" t="n">
-        <v>2837419.382306382</v>
+        <v>2965183.532716389</v>
       </c>
       <c r="AE3" t="n">
-        <v>3882282.376980332</v>
+        <v>4057094.924127823</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057340274722265e-06</v>
+        <v>1.535436785928132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.21458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3511762.79573872</v>
+        <v>3669891.478737399</v>
       </c>
     </row>
     <row r="4">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2188.921529497888</v>
+        <v>2299.627714226485</v>
       </c>
       <c r="AB4" t="n">
-        <v>2994.979005061436</v>
+        <v>3146.452091019456</v>
       </c>
       <c r="AC4" t="n">
-        <v>2709.142412297806</v>
+        <v>2846.159119525686</v>
       </c>
       <c r="AD4" t="n">
-        <v>2188921.529497888</v>
+        <v>2299627.714226485</v>
       </c>
       <c r="AE4" t="n">
-        <v>2994979.005061436</v>
+        <v>3146452.091019456</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222962079078564e-06</v>
+        <v>1.775947638526887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.25833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2709142.412297806</v>
+        <v>2846159.119525686</v>
       </c>
     </row>
     <row r="5">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1897.096569104059</v>
+        <v>1999.444363192538</v>
       </c>
       <c r="AB5" t="n">
-        <v>2595.691219841977</v>
+        <v>2735.727986979838</v>
       </c>
       <c r="AC5" t="n">
-        <v>2347.962092895765</v>
+        <v>2474.633947520826</v>
       </c>
       <c r="AD5" t="n">
-        <v>1897096.569104059</v>
+        <v>1999444.363192538</v>
       </c>
       <c r="AE5" t="n">
-        <v>2595691.219841977</v>
+        <v>2735727.986979838</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.312371164151839e-06</v>
+        <v>1.905784741586018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.5375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2347962.092895765</v>
+        <v>2474633.947520826</v>
       </c>
     </row>
     <row r="6">
@@ -21782,28 +21782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1717.251628439952</v>
+        <v>1819.51408167386</v>
       </c>
       <c r="AB6" t="n">
-        <v>2349.619437826531</v>
+        <v>2489.539437842194</v>
       </c>
       <c r="AC6" t="n">
-        <v>2125.375056391958</v>
+        <v>2251.941287985082</v>
       </c>
       <c r="AD6" t="n">
-        <v>1717251.628439952</v>
+        <v>1819514.08167386</v>
       </c>
       <c r="AE6" t="n">
-        <v>2349619.437826531</v>
+        <v>2489539.437842194</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.368270376544252e-06</v>
+        <v>1.986959845820334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.57708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2125375.056391959</v>
+        <v>2251941.287985081</v>
       </c>
     </row>
     <row r="7">
@@ -21888,28 +21888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1602.154835406291</v>
+        <v>1695.888395308044</v>
       </c>
       <c r="AB7" t="n">
-        <v>2192.138927885735</v>
+        <v>2320.389319776125</v>
       </c>
       <c r="AC7" t="n">
-        <v>1982.924265294629</v>
+        <v>2098.934619783556</v>
       </c>
       <c r="AD7" t="n">
-        <v>1602154.835406291</v>
+        <v>1695888.395308044</v>
       </c>
       <c r="AE7" t="n">
-        <v>2192138.927885735</v>
+        <v>2320389.319776125</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.401631975452191e-06</v>
+        <v>2.035406526066278e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.03958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1982924.265294629</v>
+        <v>2098934.619783556</v>
       </c>
     </row>
     <row r="8">
@@ -21994,28 +21994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1585.78359646888</v>
+        <v>1687.960708848216</v>
       </c>
       <c r="AB8" t="n">
-        <v>2169.73907652348</v>
+        <v>2309.542309416946</v>
       </c>
       <c r="AC8" t="n">
-        <v>1962.662224307999</v>
+        <v>2089.122832869182</v>
       </c>
       <c r="AD8" t="n">
-        <v>1585783.59646888</v>
+        <v>1687960.708848216</v>
       </c>
       <c r="AE8" t="n">
-        <v>2169739.07652348</v>
+        <v>2309542.309416946</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.405338819775295e-06</v>
+        <v>2.04078949053805e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.98125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1962662.224307999</v>
+        <v>2089122.832869182</v>
       </c>
     </row>
   </sheetData>
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1226.371703549894</v>
+        <v>1347.252650189761</v>
       </c>
       <c r="AB2" t="n">
-        <v>1677.975868498078</v>
+        <v>1843.370512581734</v>
       </c>
       <c r="AC2" t="n">
-        <v>1517.832206662544</v>
+        <v>1667.441818047696</v>
       </c>
       <c r="AD2" t="n">
-        <v>1226371.703549894</v>
+        <v>1347252.650189761</v>
       </c>
       <c r="AE2" t="n">
-        <v>1677975.868498078</v>
+        <v>1843370.512581734</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218395301728048e-06</v>
+        <v>2.030992377156046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>1517832.206662544</v>
+        <v>1667441.818047696</v>
       </c>
     </row>
   </sheetData>
@@ -22588,28 +22588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2433.213305974572</v>
+        <v>2560.293961587626</v>
       </c>
       <c r="AB2" t="n">
-        <v>3329.229791029573</v>
+        <v>3503.10715044221</v>
       </c>
       <c r="AC2" t="n">
-        <v>3011.492772376943</v>
+        <v>3168.775520645638</v>
       </c>
       <c r="AD2" t="n">
-        <v>2433213.305974571</v>
+        <v>2560293.961587626</v>
       </c>
       <c r="AE2" t="n">
-        <v>3329229.791029573</v>
+        <v>3503107.15044221</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.079084712718259e-06</v>
+        <v>1.642266169684731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.52708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3011492.772376943</v>
+        <v>3168775.520645638</v>
       </c>
     </row>
     <row r="3">
@@ -22694,28 +22694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1395.52537077097</v>
+        <v>1498.607721747433</v>
       </c>
       <c r="AB3" t="n">
-        <v>1909.419378523073</v>
+        <v>2050.461198801436</v>
       </c>
       <c r="AC3" t="n">
-        <v>1727.187072923759</v>
+        <v>1854.768059828193</v>
       </c>
       <c r="AD3" t="n">
-        <v>1395525.37077097</v>
+        <v>1498607.721747433</v>
       </c>
       <c r="AE3" t="n">
-        <v>1909419.378523072</v>
+        <v>2050461.198801436</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429199365270915e-06</v>
+        <v>2.17510797776646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1727187.072923759</v>
+        <v>1854768.059828193</v>
       </c>
     </row>
     <row r="4">
@@ -22800,28 +22800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1317.021247357698</v>
+        <v>1412.161146866896</v>
       </c>
       <c r="AB4" t="n">
-        <v>1802.00657351154</v>
+        <v>1932.181181296163</v>
       </c>
       <c r="AC4" t="n">
-        <v>1630.025595267709</v>
+        <v>1747.776521186577</v>
       </c>
       <c r="AD4" t="n">
-        <v>1317021.247357698</v>
+        <v>1412161.146866896</v>
       </c>
       <c r="AE4" t="n">
-        <v>1802006.57351154</v>
+        <v>1932181.181296163</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.468228004244835e-06</v>
+        <v>2.23450592185766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.17291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1630025.595267709</v>
+        <v>1747776.521186577</v>
       </c>
     </row>
   </sheetData>
@@ -23097,28 +23097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3577.19649337798</v>
+        <v>3732.269354431001</v>
       </c>
       <c r="AB2" t="n">
-        <v>4894.478057011312</v>
+        <v>5106.65558683586</v>
       </c>
       <c r="AC2" t="n">
-        <v>4427.355940693064</v>
+        <v>4619.283544864184</v>
       </c>
       <c r="AD2" t="n">
-        <v>3577196.493377979</v>
+        <v>3732269.354431001</v>
       </c>
       <c r="AE2" t="n">
-        <v>4894478.057011312</v>
+        <v>5106655.58683586</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.941252203705841e-07</v>
+        <v>1.334849103285443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4427355.940693065</v>
+        <v>4619283.544864183</v>
       </c>
     </row>
     <row r="3">
@@ -23203,28 +23203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1857.227178586918</v>
+        <v>1963.388053576324</v>
       </c>
       <c r="AB3" t="n">
-        <v>2541.140160823053</v>
+        <v>2686.394153470817</v>
       </c>
       <c r="AC3" t="n">
-        <v>2298.617310386715</v>
+        <v>2430.008465841437</v>
       </c>
       <c r="AD3" t="n">
-        <v>1857227.178586918</v>
+        <v>1963388.053576324</v>
       </c>
       <c r="AE3" t="n">
-        <v>2541140.160823053</v>
+        <v>2686394.153470817</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.282307947484172e-06</v>
+        <v>1.91437124782769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.54375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2298617.310386715</v>
+        <v>2430008.465841437</v>
       </c>
     </row>
     <row r="4">
@@ -23309,28 +23309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1479.900970148875</v>
+        <v>1569.729492340769</v>
       </c>
       <c r="AB4" t="n">
-        <v>2024.865795980654</v>
+        <v>2147.773142998312</v>
       </c>
       <c r="AC4" t="n">
-        <v>1831.615446329254</v>
+        <v>1942.792688649091</v>
       </c>
       <c r="AD4" t="n">
-        <v>1479900.970148875</v>
+        <v>1569729.492340769</v>
       </c>
       <c r="AE4" t="n">
-        <v>2024865.795980654</v>
+        <v>2147773.142998312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.422864998127974e-06</v>
+        <v>2.124210371853924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.01875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1831615.446329254</v>
+        <v>1942792.688649091</v>
       </c>
     </row>
     <row r="5">
@@ -23415,28 +23415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1402.535390049509</v>
+        <v>1500.444703031312</v>
       </c>
       <c r="AB5" t="n">
-        <v>1919.010796160195</v>
+        <v>2052.974637635934</v>
       </c>
       <c r="AC5" t="n">
-        <v>1735.863099123233</v>
+        <v>1857.04161958796</v>
       </c>
       <c r="AD5" t="n">
-        <v>1402535.390049509</v>
+        <v>1500444.703031312</v>
       </c>
       <c r="AE5" t="n">
-        <v>1919010.796160195</v>
+        <v>2052974.637635933</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.45147952074226e-06</v>
+        <v>2.166929298669107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.56458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1735863.099123233</v>
+        <v>1857041.61958796</v>
       </c>
     </row>
     <row r="6">
@@ -23521,28 +23521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1409.986251865622</v>
+        <v>1507.895564847425</v>
       </c>
       <c r="AB6" t="n">
-        <v>1929.205394005824</v>
+        <v>2063.169235481564</v>
       </c>
       <c r="AC6" t="n">
-        <v>1745.084738858684</v>
+        <v>1866.263259323411</v>
       </c>
       <c r="AD6" t="n">
-        <v>1409986.251865622</v>
+        <v>1507895.564847425</v>
       </c>
       <c r="AE6" t="n">
-        <v>1929205.394005824</v>
+        <v>2063169.235481563</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.45147952074226e-06</v>
+        <v>2.166929298669107e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.56666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1745084.738858684</v>
+        <v>1866263.259323411</v>
       </c>
     </row>
   </sheetData>
